--- a/raw_feature/test_data_feature.xlsx
+++ b/raw_feature/test_data_feature.xlsx
@@ -43,10 +43,10 @@
     <t>Day_of_Week</t>
   </si>
   <si>
-    <t>Dep_Day_Period</t>
+    <t>Day_Period_of_Dep_Time</t>
   </si>
   <si>
-    <t>Arrival_Day_Period</t>
+    <t>Day_Period_of_Arrival_Time</t>
   </si>
   <si>
     <t>Jet Airways</t>
